--- a/fuentes/contenidos/grado06/guion07/SolicitudGrafica_CN_06_07_CO_REC10 (NUEVO).xlsx
+++ b/fuentes/contenidos/grado06/guion07/SolicitudGrafica_CN_06_07_CO_REC10 (NUEVO).xlsx
@@ -21,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2476,7 +2476,7 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2856,7 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="62">
-        <v>129749318</v>
+        <v>87678442</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
